--- a/input/tests_cases_modified.xlsx
+++ b/input/tests_cases_modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reply-my.sharepoint.com/personal/x_hita_reply_it/Documents/Workspace/Sisal/Test_Design/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{75423364-DADB-4D0C-8494-47D4EBEFCA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C0566CF-2FBF-44DA-BBF6-8532C3DE3840}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{75423364-DADB-4D0C-8494-47D4EBEFCA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36430978-DBAB-479D-A34D-CEF33CEEBE05}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="0" windowWidth="17712" windowHeight="12240" xr2:uid="{3CD9DBC4-0F31-4FD8-A80D-27FD31E968B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CD9DBC4-0F31-4FD8-A80D-27FD31E968B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="429">
   <si>
     <t>ID</t>
   </si>
@@ -3226,10 +3226,7 @@
     </r>
   </si>
   <si>
-    <t>Ciao</t>
-  </si>
-  <si>
-    <t>Casa</t>
+    <t>la mucca rosa</t>
   </si>
 </sst>
 </file>
@@ -4363,8 +4360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C582FB-DA3F-4577-B4CB-24CC53585370}">
   <dimension ref="A1:AV228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4543,7 +4540,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>45</v>
@@ -4561,7 +4558,7 @@
         <v>279</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>49</v>
+        <v>428</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>50</v>
@@ -4842,7 +4839,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>46</v>

--- a/input/tests_cases_modified.xlsx
+++ b/input/tests_cases_modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reply-my.sharepoint.com/personal/x_hita_reply_it/Documents/Workspace/Sisal/Test_Design/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{75423364-DADB-4D0C-8494-47D4EBEFCA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36430978-DBAB-479D-A34D-CEF33CEEBE05}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{75423364-DADB-4D0C-8494-47D4EBEFCA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0D13CE0-2CE2-4065-990E-F51F296E0AC0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CD9DBC4-0F31-4FD8-A80D-27FD31E968B7}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="431">
   <si>
     <t>ID</t>
   </si>
@@ -923,16 +923,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Open the ANB app while logged in with an account balance of 0 euros.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>ANB App opens correctly and user lands on homepage when logged in.</t>
     </r>
   </si>
@@ -3227,6 +3217,15 @@
   </si>
   <si>
     <t>la mucca rosa</t>
+  </si>
+  <si>
+    <t>Apri l’app ANB mentre sei connesso con un account che ha un saldo di 0 euro.</t>
+  </si>
+  <si>
+    <t>casa rosa</t>
+  </si>
+  <si>
+    <t>Tap on Profile menu.</t>
   </si>
 </sst>
 </file>
@@ -3305,7 +3304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3315,6 +3314,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4360,8 +4362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C582FB-DA3F-4577-B4CB-24CC53585370}">
   <dimension ref="A1:AV228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4530,11 +4532,11 @@
       <c r="D2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>44</v>
@@ -4555,10 +4557,10 @@
         <v>48</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>50</v>
@@ -4643,10 +4645,10 @@
         <v>67</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4703,10 +4705,10 @@
         <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4760,13 +4762,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -4827,10 +4829,10 @@
         <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>44</v>
@@ -4851,7 +4853,7 @@
         <v>48</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>49</v>
@@ -4937,10 +4939,10 @@
         <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -4997,10 +4999,10 @@
         <v>68</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -5057,10 +5059,10 @@
         <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -5117,10 +5119,10 @@
         <v>77</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -5184,7 +5186,7 @@
         <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>44</v>
@@ -5296,7 +5298,7 @@
         <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>88</v>
@@ -5405,10 +5407,10 @@
         <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>88</v>
@@ -5429,7 +5431,7 @@
         <v>93</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>49</v>
@@ -5515,10 +5517,10 @@
         <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -5575,10 +5577,10 @@
         <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -5635,10 +5637,10 @@
         <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -5699,10 +5701,10 @@
         <v>43</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>88</v>
@@ -5723,7 +5725,7 @@
         <v>93</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>49</v>
@@ -5809,10 +5811,10 @@
         <v>67</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -5869,10 +5871,10 @@
         <v>68</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5929,10 +5931,10 @@
         <v>69</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -5989,10 +5991,10 @@
         <v>77</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -6053,10 +6055,10 @@
         <v>43</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>88</v>
@@ -6077,7 +6079,7 @@
         <v>103</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>49</v>
@@ -6165,10 +6167,10 @@
         <v>67</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -6225,10 +6227,10 @@
         <v>68</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -6289,10 +6291,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>107</v>
@@ -6313,7 +6315,7 @@
         <v>109</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>49</v>
@@ -6397,10 +6399,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -6457,10 +6459,10 @@
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -6517,10 +6519,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -6581,10 +6583,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>107</v>
@@ -6605,7 +6607,7 @@
         <v>109</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>49</v>
@@ -6689,10 +6691,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -6749,10 +6751,10 @@
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -6809,10 +6811,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -6869,10 +6871,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -6933,10 +6935,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>107</v>
@@ -6957,7 +6959,7 @@
         <v>109</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>49</v>
@@ -7039,10 +7041,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -7099,10 +7101,10 @@
         <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -7159,10 +7161,10 @@
         <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -7223,10 +7225,10 @@
         <v>43</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>127</v>
@@ -7247,7 +7249,7 @@
         <v>45</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>49</v>
@@ -7337,10 +7339,10 @@
         <v>67</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -7397,10 +7399,10 @@
         <v>68</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -7457,10 +7459,10 @@
         <v>69</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -7517,10 +7519,10 @@
         <v>77</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -7581,10 +7583,10 @@
         <v>43</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>127</v>
@@ -7605,7 +7607,7 @@
         <v>45</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>49</v>
@@ -7695,10 +7697,10 @@
         <v>67</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -7755,10 +7757,10 @@
         <v>68</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -7815,10 +7817,10 @@
         <v>69</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -7879,10 +7881,10 @@
         <v>43</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>107</v>
@@ -7903,7 +7905,7 @@
         <v>140</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>49</v>
@@ -7993,10 +7995,10 @@
         <v>67</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -8053,10 +8055,10 @@
         <v>68</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -8113,10 +8115,10 @@
         <v>69</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -8173,10 +8175,10 @@
         <v>77</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -8233,10 +8235,10 @@
         <v>144</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -8297,10 +8299,10 @@
         <v>43</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>107</v>
@@ -8321,7 +8323,7 @@
         <v>140</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>49</v>
@@ -8405,10 +8407,10 @@
         <v>67</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -8465,10 +8467,10 @@
         <v>68</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -8525,10 +8527,10 @@
         <v>69</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -8585,10 +8587,10 @@
         <v>77</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -8649,10 +8651,10 @@
         <v>43</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>107</v>
@@ -8673,7 +8675,7 @@
         <v>140</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>49</v>
@@ -8763,10 +8765,10 @@
         <v>67</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -8823,10 +8825,10 @@
         <v>68</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -8883,10 +8885,10 @@
         <v>69</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -8943,10 +8945,10 @@
         <v>77</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -9003,10 +9005,10 @@
         <v>144</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -9067,10 +9069,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>107</v>
@@ -9091,7 +9093,7 @@
         <v>158</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>159</v>
@@ -9175,10 +9177,10 @@
         <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>107</v>
@@ -9199,7 +9201,7 @@
         <v>168</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>159</v>
@@ -9529,10 +9531,10 @@
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>107</v>
@@ -9553,7 +9555,7 @@
         <v>190</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>159</v>
@@ -9635,10 +9637,10 @@
         <v>2</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -9695,10 +9697,10 @@
         <v>3</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -9755,10 +9757,10 @@
         <v>4</v>
       </c>
       <c r="E72" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -9819,10 +9821,10 @@
         <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>107</v>
@@ -9843,7 +9845,7 @@
         <v>190</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N73" s="3" t="s">
         <v>159</v>
@@ -9933,10 +9935,10 @@
         <v>2</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -9993,10 +9995,10 @@
         <v>3</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -10053,10 +10055,10 @@
         <v>4</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -10117,10 +10119,10 @@
         <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>107</v>
@@ -10141,7 +10143,7 @@
         <v>190</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N77" s="3" t="s">
         <v>159</v>
@@ -10223,10 +10225,10 @@
         <v>2</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -10283,10 +10285,10 @@
         <v>3</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -10343,10 +10345,10 @@
         <v>4</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -10407,10 +10409,10 @@
         <v>43</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>107</v>
@@ -10431,7 +10433,7 @@
         <v>208</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3" t="s">
@@ -10517,10 +10519,10 @@
         <v>67</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -10577,10 +10579,10 @@
         <v>68</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -10641,10 +10643,10 @@
         <v>43</v>
       </c>
       <c r="E84" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>107</v>
@@ -10665,7 +10667,7 @@
         <v>216</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N84" s="3" t="s">
         <v>49</v>
@@ -10753,10 +10755,10 @@
         <v>67</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -10813,10 +10815,10 @@
         <v>68</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -10873,10 +10875,10 @@
         <v>69</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -10940,7 +10942,7 @@
         <v>224</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>107</v>
@@ -11046,7 +11048,7 @@
         <v>228</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -11106,7 +11108,7 @@
         <v>229</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -11166,7 +11168,7 @@
         <v>230</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -11230,7 +11232,7 @@
         <v>224</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>107</v>
@@ -11336,7 +11338,7 @@
         <v>228</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -11396,7 +11398,7 @@
         <v>237</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -11453,10 +11455,10 @@
         <v>69</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -11516,7 +11518,7 @@
         <v>238</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -11573,10 +11575,10 @@
         <v>144</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -11636,7 +11638,7 @@
         <v>238</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -11696,7 +11698,7 @@
         <v>241</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -11756,7 +11758,7 @@
         <v>238</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -11816,7 +11818,7 @@
         <v>244</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -11876,7 +11878,7 @@
         <v>238</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -11936,7 +11938,7 @@
         <v>247</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -11996,7 +11998,7 @@
         <v>238</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -12056,7 +12058,7 @@
         <v>248</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -12116,7 +12118,7 @@
         <v>249</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -12177,7 +12179,7 @@
         <v>43</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>252</v>
@@ -12285,7 +12287,7 @@
         <v>68</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>261</v>
@@ -12345,7 +12347,7 @@
         <v>68</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>262</v>
@@ -12405,7 +12407,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>263</v>
@@ -12465,7 +12467,7 @@
         <v>77</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>264</v>
@@ -12529,7 +12531,7 @@
         <v>43</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>252</v>
@@ -12757,10 +12759,10 @@
         <v>69</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -12877,7 +12879,7 @@
         <v>144</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>276</v>
